--- a/data/n2v/tables/model-1200-1325-20230828-32.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-32.xlsx
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
